--- a/OGA_STA404.xlsx
+++ b/OGA_STA404.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F173796-2218-47C3-99E6-73E4064F41AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF64AD83-1E8B-4594-A2D8-46AE2CB03859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BAC27743-BA74-45ED-A773-A10367CAE196}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465C901A-2E30-4458-B3F9-38E1A2BAB49E}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -721,13 +721,15 @@
       <c r="D7" s="5">
         <v>8</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>11</v>
+      </c>
       <c r="F7" s="5">
         <v>48</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>21.866666666666667</v>
+        <v>28.466666666666665</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -809,13 +811,15 @@
       <c r="D11" s="5">
         <v>5</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>23.5</v>
+      </c>
       <c r="F11" s="5">
         <v>42.75</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>18.766666666666669</v>
+        <v>32.866666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1029,13 +1033,15 @@
       <c r="D21" s="5">
         <v>10</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5">
+        <v>23</v>
+      </c>
       <c r="F21" s="5">
         <v>27</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
-        <v>14.133333333333333</v>
+        <v>27.933333333333334</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1073,13 +1079,15 @@
       <c r="D23" s="5">
         <v>12.5</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>26</v>
+      </c>
       <c r="F23" s="5">
         <v>43.25</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="0"/>
-        <v>21.466666666666669</v>
+        <v>37.06666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">

--- a/OGA_STA404.xlsx
+++ b/OGA_STA404.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF64AD83-1E8B-4594-A2D8-46AE2CB03859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53F8BA6-D763-4513-97C1-01686B3DEA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BAC27743-BA74-45ED-A773-A10367CAE196}"/>
   </bookViews>
@@ -258,6 +258,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>827580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>191520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>827940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>194400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32CD1FB-1E82-60FE-A1AF-A74F0827C0B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7967520" y="3460500"/>
+            <a:ext cx="360" cy="2880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32CD1FB-1E82-60FE-A1AF-A74F0827C0B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7961400" y="3454380"/>
+              <a:ext cx="12600" cy="15120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-28T14:02:07.907"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 1496,'0'6'1010</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465C901A-2E30-4458-B3F9-38E1A2BAB49E}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -699,13 +796,15 @@
       <c r="D6" s="5">
         <v>18</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>33.5</v>
+      </c>
       <c r="F6" s="5">
         <v>27</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>36.900000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -745,13 +844,15 @@
       <c r="D8" s="5">
         <v>12.5</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>33.5</v>
+      </c>
       <c r="F8" s="5">
         <v>27.25</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>15.066666666666666</v>
+        <v>35.166666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -789,13 +890,15 @@
       <c r="D10" s="5">
         <v>29.5</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>42</v>
+      </c>
       <c r="F10" s="5">
         <v>42.75</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>26.933333333333334</v>
+        <v>52.133333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -835,13 +938,15 @@
       <c r="D12" s="5">
         <v>13</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>34</v>
+      </c>
       <c r="F12" s="5">
         <v>42.75</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="0"/>
-        <v>21.433333333333337</v>
+        <v>41.833333333333336</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -1158,5 +1263,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OGA_STA404.xlsx
+++ b/OGA_STA404.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53F8BA6-D763-4513-97C1-01686B3DEA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F55346-0B25-4979-9C79-6471DFF56C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BAC27743-BA74-45ED-A773-A10367CAE196}"/>
   </bookViews>
@@ -275,8 +275,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>194400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -295,7 +295,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465C901A-2E30-4458-B3F9-38E1A2BAB49E}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -708,13 +708,15 @@
       <c r="D2" s="5">
         <v>14.5</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5">
+        <v>34</v>
+      </c>
       <c r="F2" s="5">
         <v>42.75</v>
       </c>
       <c r="G2" s="6">
         <f>D2/30*10+E2/50*30+F2/50*20</f>
-        <v>21.933333333333334</v>
+        <v>42.333333333333336</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -730,13 +732,15 @@
       <c r="D3" s="5">
         <v>18</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>39</v>
+      </c>
       <c r="F3" s="5">
         <v>39</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G26" si="0">D3/30*10+E3/50*30+F3/50*20</f>
-        <v>21.6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -752,13 +756,15 @@
       <c r="D4" s="5">
         <v>6.5</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>7</v>
+      </c>
       <c r="F4" s="5">
         <v>27</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
-        <v>12.966666666666669</v>
+        <v>17.166666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -774,13 +780,15 @@
       <c r="D5" s="5">
         <v>7.5</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>23</v>
+      </c>
       <c r="F5" s="5">
         <v>27.25</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>13.4</v>
+        <v>27.200000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -868,13 +876,15 @@
       <c r="D9" s="5">
         <v>13</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>19.5</v>
+      </c>
       <c r="F9" s="5">
         <v>48</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>23.533333333333331</v>
+        <v>35.233333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -962,13 +972,15 @@
       <c r="D13" s="5">
         <v>8.5</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>30</v>
+      </c>
       <c r="F13" s="5">
         <v>48</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="0"/>
-        <v>22.033333333333331</v>
+        <v>40.033333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -984,13 +996,15 @@
       <c r="D14" s="5">
         <v>20</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5">
+        <v>33.5</v>
+      </c>
       <c r="F14" s="5">
         <v>39</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
-        <v>22.266666666666666</v>
+        <v>42.366666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1006,13 +1020,15 @@
       <c r="D15" s="5">
         <v>20</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5">
+        <v>41.5</v>
+      </c>
       <c r="F15" s="5">
         <v>39</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>22.266666666666666</v>
+        <v>47.166666666666664</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1028,13 +1044,15 @@
       <c r="D16" s="5">
         <v>6</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>42.5</v>
+      </c>
       <c r="F16" s="5">
         <v>27.25</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>12.9</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1050,13 +1068,15 @@
       <c r="D17" s="5">
         <v>10</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5">
+        <v>38</v>
+      </c>
       <c r="F17" s="5">
         <v>42.75</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>20.433333333333334</v>
+        <v>43.233333333333334</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1072,13 +1092,15 @@
       <c r="D18" s="5">
         <v>10</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5">
+        <v>13</v>
+      </c>
       <c r="F18" s="5">
         <v>43.25</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>20.633333333333333</v>
+        <v>28.433333333333334</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1094,13 +1116,15 @@
       <c r="D19" s="5">
         <v>2.5</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>34.5</v>
+      </c>
       <c r="F19" s="5">
         <v>27</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="0"/>
-        <v>11.633333333333335</v>
+        <v>32.333333333333329</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1116,13 +1140,15 @@
       <c r="D20" s="5">
         <v>4.5</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5">
+        <v>16.5</v>
+      </c>
       <c r="F20" s="5">
         <v>27.25</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
-        <v>12.4</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1162,13 +1188,15 @@
       <c r="D22" s="5">
         <v>16</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5">
+        <v>22.5</v>
+      </c>
       <c r="F22" s="5">
         <v>43.25</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
-        <v>22.633333333333333</v>
+        <v>36.133333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1208,13 +1236,15 @@
       <c r="D24" s="5">
         <v>17.5</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>44</v>
+      </c>
       <c r="F24" s="5">
         <v>39</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="0"/>
-        <v>21.433333333333337</v>
+        <v>47.833333333333336</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1230,13 +1260,15 @@
       <c r="D25" s="5">
         <v>18</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5">
+        <v>46.5</v>
+      </c>
       <c r="F25" s="5">
         <v>39</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="0"/>
-        <v>21.6</v>
+        <v>49.500000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
